--- a/Diploma/Metrics.xlsx
+++ b/Diploma/Metrics.xlsx
@@ -466,13 +466,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-172.7478479241885</v>
+        <v>-2.611543900785094</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9879550581876324</v>
+        <v>0.07717835705609512</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9722260395155938</v>
+        <v>0.9990623130852651</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.3382480326668129</v>
+        <v>-0.3272621072280406</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4907103383363903</v>
+        <v>0.4833682071129712</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.5852315579322275</v>
+        <v>-0.5873498981461434</v>
       </c>
     </row>
     <row r="4">
@@ -504,13 +504,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-19787.90734922142</v>
+        <v>-112468.1821454628</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9441623256726743</v>
+        <v>0.9996504337695269</v>
       </c>
       <c r="E4" t="n">
-        <v>0.09034509288803889</v>
+        <v>-0.01202488522617391</v>
       </c>
     </row>
     <row r="5">
@@ -523,13 +523,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-3.339320742479451</v>
+        <v>-24.58953277079197</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8195710736048907</v>
+        <v>0.7758270965853896</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6129841681828315</v>
+        <v>-0.5637216189927576</v>
       </c>
     </row>
     <row r="6">
@@ -542,13 +542,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9780662379032771</v>
+        <v>-4.042839460422329</v>
       </c>
       <c r="D6" t="n">
-        <v>0.06599480697922706</v>
+        <v>0.594249163167603</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9960912184604994</v>
+        <v>0.4776221073808626</v>
       </c>
     </row>
     <row r="7">
@@ -561,13 +561,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-578.4901399018997</v>
+        <v>-7010.93806296623</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5345878493686338</v>
+        <v>0.8004818402675289</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.9729308775473208</v>
+        <v>-0.9643514049377471</v>
       </c>
     </row>
     <row r="8">
@@ -580,13 +580,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.04208597505860867</v>
+        <v>-0.002379704966644303</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9180511454851423</v>
+        <v>0.885039846324471</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.884208869600679</v>
+        <v>-0.3662337739607447</v>
       </c>
     </row>
     <row r="9">
@@ -599,13 +599,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-32.35597189059079</v>
+        <v>-4539.519187915086</v>
       </c>
       <c r="D9" t="n">
-        <v>0.08460304570959287</v>
+        <v>0.5098657370392975</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9681904078154334</v>
+        <v>0.9605638732232217</v>
       </c>
     </row>
     <row r="10">
